--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>URL</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Purple Sky</t>
   </si>
   <si>
+    <t>62.4K</t>
+  </si>
+  <si>
     <t>Purple City</t>
   </si>
   <si>
@@ -65,16 +68,460 @@
     <t>MGMT@purpleskyhq.com</t>
   </si>
   <si>
-    <t>https://soundcloud.com/silverandgold88</t>
-  </si>
-  <si>
-    <t>Silver + Gold</t>
-  </si>
-  <si>
-    <t>http://facebook.com/silverandgold88</t>
-  </si>
-  <si>
-    <t>http://twitter.com/silverandgold88</t>
+    <t>https://soundcloud.com/calciferstaylit</t>
+  </si>
+  <si>
+    <t>calciferstaylit.Monthly Pro plan</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>\m/</t>
+  </si>
+  <si>
+    <t>http://twitter.com/calciferstaylit</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCW2OelREUM0-isk7aAP1SMA</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/noisebible</t>
+  </si>
+  <si>
+    <t>The Noise BibleMonthly Pro plan</t>
+  </si>
+  <si>
+    <t>45.7K</t>
+  </si>
+  <si>
+    <t>Noise Bible</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/house-bootlegs</t>
+  </si>
+  <si>
+    <t>HouseBootlegs.comMonthly Pro plan</t>
+  </si>
+  <si>
+    <t>91K</t>
+  </si>
+  <si>
+    <t>Because Good Music Needs Attention!</t>
+  </si>
+  <si>
+    <t>https://facebook.com/housebootlegs</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/pegboardnerds</t>
+  </si>
+  <si>
+    <t>Pegboard NerdsCustom Pro Unlimited plan</t>
+  </si>
+  <si>
+    <t>313K</t>
+  </si>
+  <si>
+    <t>Denmark, Norway</t>
+  </si>
+  <si>
+    <t>http://facebook.com/PegboardNerds</t>
+  </si>
+  <si>
+    <t>http://twitter.com/PegboardNerds</t>
+  </si>
+  <si>
+    <t>http://youtube.com/user/PegboardNerds</t>
+  </si>
+  <si>
+    <t>ALEC@TH3RDBRAIN.COM</t>
+  </si>
+  <si>
+    <t>ferry@apa-agency.com</t>
+  </si>
+  <si>
+    <t>criskin@apa-agency.com</t>
+  </si>
+  <si>
+    <t>nathalie@anna-agency.nl</t>
+  </si>
+  <si>
+    <t>joost@anna-agency.nl</t>
+  </si>
+  <si>
+    <t>robb@supermodifiedagency.com</t>
+  </si>
+  <si>
+    <t>rory@supermodifiedagency.com</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/moi-records</t>
+  </si>
+  <si>
+    <t>MOI Records</t>
+  </si>
+  <si>
+    <t>43.7K</t>
+  </si>
+  <si>
+    <t>Worldwide</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MOIRecordsOfficial/</t>
+  </si>
+  <si>
+    <t>mgmt@purpleskyhq.com</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/electromusicapp</t>
+  </si>
+  <si>
+    <t>ElectroMusic Network</t>
+  </si>
+  <si>
+    <t>42.4K</t>
+  </si>
+  <si>
+    <t>EDM • Tropical • Future • Dubstep Progressive • Big Room • Repost</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/heatedrecords</t>
+  </si>
+  <si>
+    <t>Heated Records</t>
+  </si>
+  <si>
+    <t>18.4K</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HeatedRecords/</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/hkfiftyone2</t>
+  </si>
+  <si>
+    <t>HKFIFTYONE</t>
+  </si>
+  <si>
+    <t>3,771</t>
+  </si>
+  <si>
+    <t>http://twitter.com/hkfiftyone</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/karmarhythm</t>
+  </si>
+  <si>
+    <t>KARMA RHYTHMMonthly Pro plan</t>
+  </si>
+  <si>
+    <t>9,912</t>
+  </si>
+  <si>
+    <t>CUTE &amp; EMO</t>
+  </si>
+  <si>
+    <t>https://twitter.com/karmarhythm</t>
+  </si>
+  <si>
+    <t>KARMARHYTHM@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/chilltrapnetwork</t>
+  </si>
+  <si>
+    <t>Chill Trap Records</t>
+  </si>
+  <si>
+    <t>90.1K</t>
+  </si>
+  <si>
+    <t>Future Bass · Electronic Music</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chilltrapedm</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ChillTrap</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/chilltrapedm%3Fsub_confirmation%3D1</t>
+  </si>
+  <si>
+    <t>repostmusicedm@gmail.com</t>
+  </si>
+  <si>
+    <t>chilltrapnetwork@gmail.com</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/eaglesnestradionetwork</t>
+  </si>
+  <si>
+    <t>Eagles Nest Radio</t>
+  </si>
+  <si>
+    <t>13.8K</t>
+  </si>
+  <si>
+    <t>Repost Promotion Network &gt; EDM &gt; Al &gt; Dubstep &gt; Future Bass &gt; Techno &gt;</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/eaglesnestradio/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/eaglesmusicnest</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCAVoSYwLe56Zkiw65rXzJhg</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/randoeats</t>
+  </si>
+  <si>
+    <t>BrandoBeats</t>
+  </si>
+  <si>
+    <t>4,326</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/x_change</t>
+  </si>
+  <si>
+    <t>X-ChangeYearly Pro Unlimited plan</t>
+  </si>
+  <si>
+    <t>30.8K</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/djxchange</t>
+  </si>
+  <si>
+    <t>http://twitter.com/djxchange</t>
+  </si>
+  <si>
+    <t>http://youtube.com/djxchange</t>
+  </si>
+  <si>
+    <t>wesley@wesleyfransen.nl</t>
+  </si>
+  <si>
+    <t>booking@djxchangeofficial.com</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/seangast</t>
+  </si>
+  <si>
+    <t>Sean Gast</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>SeanGastManagement@gmail.com</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/iamsammyporter</t>
+  </si>
+  <si>
+    <t>Sammy PorterMonthly Pro Unlimited plan</t>
+  </si>
+  <si>
+    <t>135K</t>
+  </si>
+  <si>
+    <t>Sammy Porter</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/iamsammyporter</t>
+  </si>
+  <si>
+    <t>http://twitter.com/iamsammyporter</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCLysrHcmFZeVLgFNYzaY5gQ%3Fsub_confirmation%3D1</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/erbndub</t>
+  </si>
+  <si>
+    <t>Erb N Dub (Killer Hertz)Monthly Pro Unlimited plan</t>
+  </si>
+  <si>
+    <t>24.2K</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>http://facebook.com/erbndubmusic</t>
+  </si>
+  <si>
+    <t>http://twitter.com/erbndub</t>
+  </si>
+  <si>
+    <t>http://youtube.com/erbndub</t>
+  </si>
+  <si>
+    <t>abel@fingerlickin.co.uk</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/artistunioncollective</t>
+  </si>
+  <si>
+    <t>theartistunion.com</t>
+  </si>
+  <si>
+    <t>694K</t>
+  </si>
+  <si>
+    <t>https://facebook.com/theartistunionofficial</t>
+  </si>
+  <si>
+    <t>https://twitter.com/theartistunion</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/deep_chills</t>
+  </si>
+  <si>
+    <t>Deep Chills</t>
+  </si>
+  <si>
+    <t>26.7K</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/desirerec</t>
+  </si>
+  <si>
+    <t>Desire RecordsMonthly Pro plan</t>
+  </si>
+  <si>
+    <t>74.4K</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/itswesleyfransen</t>
+  </si>
+  <si>
+    <t>desire@wesleyfransen.nl</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/xclusivedrops</t>
+  </si>
+  <si>
+    <t>Exclusive Drops</t>
+  </si>
+  <si>
+    <t>60.3K</t>
+  </si>
+  <si>
+    <t>Music Matters</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ddt40</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mostaddictivemusic</t>
+  </si>
+  <si>
+    <t>MA Music</t>
+  </si>
+  <si>
+    <t>41.4K</t>
+  </si>
+  <si>
+    <t>Most Addictive</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mostaddictivemusic/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/mostaddictive</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/MADrumandBass</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/racecarbed</t>
+  </si>
+  <si>
+    <t>RaceCarBedYearly Pro Unlimited plan</t>
+  </si>
+  <si>
+    <t>7,410</t>
+  </si>
+  <si>
+    <t>RaceCarBed</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/racecarbed</t>
+  </si>
+  <si>
+    <t>http://twitter.com/myracecarbed</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/monstercat</t>
+  </si>
+  <si>
+    <t>MonstercatCustom Pro Unlimited plan</t>
+  </si>
+  <si>
+    <t>985K</t>
+  </si>
+  <si>
+    <t>Vancouver, Canada</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/monstercat</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/monstercat</t>
+  </si>
+  <si>
+    <t>http://youtube.com/monstercat</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/tailsxbeats</t>
+  </si>
+  <si>
+    <t>tailsMonthly Pro Unlimited plan</t>
+  </si>
+  <si>
+    <t>34.6K</t>
+  </si>
+  <si>
+    <t>spencer</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TAILSxBEATS</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TAILSxBEATS</t>
+  </si>
+  <si>
+    <t>tailsxbeats@gmail.com</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/lug00ber</t>
+  </si>
+  <si>
+    <t>lug00ber</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>Ola Christian Gundelsby</t>
+  </si>
+  <si>
+    <t>http://twitter.com/lug00ber</t>
+  </si>
+  <si>
+    <t>lug00ber@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -410,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,7 +865,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,59 +891,680 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="n">
-        <v>624000</v>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="n">
-        <v>271</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
